--- a/current_experiments/DATA/video/experiment_001_60_epochs.xlsx
+++ b/current_experiments/DATA/video/experiment_001_60_epochs.xlsx
@@ -3572,10 +3572,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>723</v>
+        <v>3</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>723</v>
+        <v>3</v>
       </c>
       <c r="B243" t="n">
-        <v>726</v>
+        <v>6</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>726</v>
+        <v>6</v>
       </c>
       <c r="B244" t="n">
-        <v>729</v>
+        <v>9</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>729</v>
+        <v>9</v>
       </c>
       <c r="B245" t="n">
-        <v>732</v>
+        <v>12</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>732</v>
+        <v>12</v>
       </c>
       <c r="B246" t="n">
-        <v>735</v>
+        <v>15</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>735</v>
+        <v>15</v>
       </c>
       <c r="B247" t="n">
-        <v>738</v>
+        <v>18</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>738</v>
+        <v>18</v>
       </c>
       <c r="B248" t="n">
-        <v>741</v>
+        <v>21</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>741</v>
+        <v>21</v>
       </c>
       <c r="B249" t="n">
-        <v>744</v>
+        <v>24</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>744</v>
+        <v>24</v>
       </c>
       <c r="B250" t="n">
-        <v>747</v>
+        <v>27</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>747</v>
+        <v>27</v>
       </c>
       <c r="B251" t="n">
-        <v>750</v>
+        <v>30</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>750</v>
+        <v>30</v>
       </c>
       <c r="B252" t="n">
-        <v>753</v>
+        <v>33</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -3715,10 +3715,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>753</v>
+        <v>33</v>
       </c>
       <c r="B253" t="n">
-        <v>756</v>
+        <v>36</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>756</v>
+        <v>36</v>
       </c>
       <c r="B254" t="n">
-        <v>759</v>
+        <v>39</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>759</v>
+        <v>39</v>
       </c>
       <c r="B255" t="n">
-        <v>762</v>
+        <v>42</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -3754,10 +3754,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>762</v>
+        <v>42</v>
       </c>
       <c r="B256" t="n">
-        <v>765</v>
+        <v>45</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>765</v>
+        <v>45</v>
       </c>
       <c r="B257" t="n">
-        <v>768</v>
+        <v>48</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -3780,10 +3780,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>768</v>
+        <v>48</v>
       </c>
       <c r="B258" t="n">
-        <v>771</v>
+        <v>51</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -3793,10 +3793,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>771</v>
+        <v>51</v>
       </c>
       <c r="B259" t="n">
-        <v>774</v>
+        <v>54</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>774</v>
+        <v>54</v>
       </c>
       <c r="B260" t="n">
-        <v>777</v>
+        <v>57</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>777</v>
+        <v>57</v>
       </c>
       <c r="B261" t="n">
-        <v>780</v>
+        <v>60</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -3832,10 +3832,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>780</v>
+        <v>60</v>
       </c>
       <c r="B262" t="n">
-        <v>783</v>
+        <v>63</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -3845,10 +3845,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>783</v>
+        <v>63</v>
       </c>
       <c r="B263" t="n">
-        <v>786</v>
+        <v>66</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>786</v>
+        <v>66</v>
       </c>
       <c r="B264" t="n">
-        <v>789</v>
+        <v>69</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -3871,10 +3871,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>789</v>
+        <v>69</v>
       </c>
       <c r="B265" t="n">
-        <v>792</v>
+        <v>72</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>792</v>
+        <v>72</v>
       </c>
       <c r="B266" t="n">
-        <v>795</v>
+        <v>75</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>795</v>
+        <v>75</v>
       </c>
       <c r="B267" t="n">
-        <v>798</v>
+        <v>78</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>798</v>
+        <v>78</v>
       </c>
       <c r="B268" t="n">
-        <v>801</v>
+        <v>81</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -3923,10 +3923,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>801</v>
+        <v>81</v>
       </c>
       <c r="B269" t="n">
-        <v>804</v>
+        <v>84</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -3936,10 +3936,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>804</v>
+        <v>84</v>
       </c>
       <c r="B270" t="n">
-        <v>807</v>
+        <v>87</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>807</v>
+        <v>87</v>
       </c>
       <c r="B271" t="n">
-        <v>810</v>
+        <v>90</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>810</v>
+        <v>90</v>
       </c>
       <c r="B272" t="n">
-        <v>813</v>
+        <v>93</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>813</v>
+        <v>93</v>
       </c>
       <c r="B273" t="n">
-        <v>816</v>
+        <v>96</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>816</v>
+        <v>96</v>
       </c>
       <c r="B274" t="n">
-        <v>819</v>
+        <v>99</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -4001,10 +4001,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>819</v>
+        <v>99</v>
       </c>
       <c r="B275" t="n">
-        <v>822</v>
+        <v>102</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -4014,10 +4014,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>822</v>
+        <v>102</v>
       </c>
       <c r="B276" t="n">
-        <v>825</v>
+        <v>105</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>825</v>
+        <v>105</v>
       </c>
       <c r="B277" t="n">
-        <v>828</v>
+        <v>108</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -4040,10 +4040,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>828</v>
+        <v>108</v>
       </c>
       <c r="B278" t="n">
-        <v>831</v>
+        <v>111</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>831</v>
+        <v>111</v>
       </c>
       <c r="B279" t="n">
-        <v>834</v>
+        <v>114</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>834</v>
+        <v>114</v>
       </c>
       <c r="B280" t="n">
-        <v>837</v>
+        <v>117</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4079,10 +4079,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>837</v>
+        <v>117</v>
       </c>
       <c r="B281" t="n">
-        <v>840</v>
+        <v>120</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>840</v>
+        <v>120</v>
       </c>
       <c r="B282" t="n">
-        <v>843</v>
+        <v>123</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>843</v>
+        <v>123</v>
       </c>
       <c r="B283" t="n">
-        <v>846</v>
+        <v>126</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>846</v>
+        <v>126</v>
       </c>
       <c r="B284" t="n">
-        <v>849</v>
+        <v>129</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>849</v>
+        <v>129</v>
       </c>
       <c r="B285" t="n">
-        <v>852</v>
+        <v>132</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>852</v>
+        <v>132</v>
       </c>
       <c r="B286" t="n">
-        <v>855</v>
+        <v>135</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>855</v>
+        <v>135</v>
       </c>
       <c r="B287" t="n">
-        <v>858</v>
+        <v>138</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>858</v>
+        <v>138</v>
       </c>
       <c r="B288" t="n">
-        <v>861</v>
+        <v>141</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -4183,10 +4183,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>861</v>
+        <v>141</v>
       </c>
       <c r="B289" t="n">
-        <v>864</v>
+        <v>144</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -4196,10 +4196,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>864</v>
+        <v>144</v>
       </c>
       <c r="B290" t="n">
-        <v>867</v>
+        <v>147</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4209,10 +4209,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>867</v>
+        <v>147</v>
       </c>
       <c r="B291" t="n">
-        <v>870</v>
+        <v>150</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>870</v>
+        <v>150</v>
       </c>
       <c r="B292" t="n">
-        <v>873</v>
+        <v>153</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>873</v>
+        <v>153</v>
       </c>
       <c r="B293" t="n">
-        <v>876</v>
+        <v>156</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>876</v>
+        <v>156</v>
       </c>
       <c r="B294" t="n">
-        <v>879</v>
+        <v>159</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -4261,10 +4261,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>879</v>
+        <v>159</v>
       </c>
       <c r="B295" t="n">
-        <v>882</v>
+        <v>162</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -4274,10 +4274,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>882</v>
+        <v>162</v>
       </c>
       <c r="B296" t="n">
-        <v>885</v>
+        <v>165</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -4287,10 +4287,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>885</v>
+        <v>165</v>
       </c>
       <c r="B297" t="n">
-        <v>888</v>
+        <v>168</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>888</v>
+        <v>168</v>
       </c>
       <c r="B298" t="n">
-        <v>891</v>
+        <v>171</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>891</v>
+        <v>171</v>
       </c>
       <c r="B299" t="n">
-        <v>894</v>
+        <v>174</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -4326,10 +4326,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>894</v>
+        <v>174</v>
       </c>
       <c r="B300" t="n">
-        <v>897</v>
+        <v>177</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>897</v>
+        <v>177</v>
       </c>
       <c r="B301" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="B302" t="n">
-        <v>903</v>
+        <v>183</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -4365,10 +4365,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>903</v>
+        <v>183</v>
       </c>
       <c r="B303" t="n">
-        <v>906</v>
+        <v>186</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -4378,10 +4378,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>906</v>
+        <v>186</v>
       </c>
       <c r="B304" t="n">
-        <v>909</v>
+        <v>189</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>909</v>
+        <v>189</v>
       </c>
       <c r="B305" t="n">
-        <v>912</v>
+        <v>192</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -4404,10 +4404,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>912</v>
+        <v>192</v>
       </c>
       <c r="B306" t="n">
-        <v>915</v>
+        <v>195</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>915</v>
+        <v>195</v>
       </c>
       <c r="B307" t="n">
-        <v>918</v>
+        <v>198</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>918</v>
+        <v>198</v>
       </c>
       <c r="B308" t="n">
-        <v>921</v>
+        <v>201</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>921</v>
+        <v>201</v>
       </c>
       <c r="B309" t="n">
-        <v>924</v>
+        <v>204</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>924</v>
+        <v>204</v>
       </c>
       <c r="B310" t="n">
-        <v>927</v>
+        <v>207</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>927</v>
+        <v>207</v>
       </c>
       <c r="B311" t="n">
-        <v>930</v>
+        <v>210</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>930</v>
+        <v>210</v>
       </c>
       <c r="B312" t="n">
-        <v>933</v>
+        <v>213</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>933</v>
+        <v>213</v>
       </c>
       <c r="B313" t="n">
-        <v>936</v>
+        <v>216</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -4508,10 +4508,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>936</v>
+        <v>216</v>
       </c>
       <c r="B314" t="n">
-        <v>939</v>
+        <v>219</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>939</v>
+        <v>219</v>
       </c>
       <c r="B315" t="n">
-        <v>942</v>
+        <v>222</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>942</v>
+        <v>222</v>
       </c>
       <c r="B316" t="n">
-        <v>945</v>
+        <v>225</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -4547,10 +4547,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>945</v>
+        <v>225</v>
       </c>
       <c r="B317" t="n">
-        <v>948</v>
+        <v>228</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -4560,10 +4560,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>948</v>
+        <v>228</v>
       </c>
       <c r="B318" t="n">
-        <v>951</v>
+        <v>231</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>951</v>
+        <v>231</v>
       </c>
       <c r="B319" t="n">
-        <v>954</v>
+        <v>234</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>954</v>
+        <v>234</v>
       </c>
       <c r="B320" t="n">
-        <v>957</v>
+        <v>237</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>957</v>
+        <v>237</v>
       </c>
       <c r="B321" t="n">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -4612,10 +4612,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="B322" t="n">
-        <v>963</v>
+        <v>243</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>963</v>
+        <v>243</v>
       </c>
       <c r="B323" t="n">
-        <v>966</v>
+        <v>246</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>966</v>
+        <v>246</v>
       </c>
       <c r="B324" t="n">
-        <v>969</v>
+        <v>249</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -4651,10 +4651,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>969</v>
+        <v>249</v>
       </c>
       <c r="B325" t="n">
-        <v>972</v>
+        <v>252</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>972</v>
+        <v>252</v>
       </c>
       <c r="B326" t="n">
-        <v>975</v>
+        <v>255</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -4677,10 +4677,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>975</v>
+        <v>255</v>
       </c>
       <c r="B327" t="n">
-        <v>978</v>
+        <v>258</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -4690,10 +4690,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>978</v>
+        <v>258</v>
       </c>
       <c r="B328" t="n">
-        <v>981</v>
+        <v>261</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>981</v>
+        <v>261</v>
       </c>
       <c r="B329" t="n">
-        <v>984</v>
+        <v>264</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -4716,10 +4716,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>984</v>
+        <v>264</v>
       </c>
       <c r="B330" t="n">
-        <v>987</v>
+        <v>267</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>987</v>
+        <v>267</v>
       </c>
       <c r="B331" t="n">
-        <v>990</v>
+        <v>270</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>990</v>
+        <v>270</v>
       </c>
       <c r="B332" t="n">
-        <v>993</v>
+        <v>273</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>993</v>
+        <v>273</v>
       </c>
       <c r="B333" t="n">
-        <v>996</v>
+        <v>276</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>996</v>
+        <v>276</v>
       </c>
       <c r="B334" t="n">
-        <v>999</v>
+        <v>279</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>999</v>
+        <v>279</v>
       </c>
       <c r="B335" t="n">
-        <v>1002</v>
+        <v>282</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -4794,10 +4794,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1002</v>
+        <v>282</v>
       </c>
       <c r="B336" t="n">
-        <v>1005</v>
+        <v>285</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1005</v>
+        <v>285</v>
       </c>
       <c r="B337" t="n">
-        <v>1008</v>
+        <v>288</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -4820,10 +4820,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1008</v>
+        <v>288</v>
       </c>
       <c r="B338" t="n">
-        <v>1011</v>
+        <v>291</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1011</v>
+        <v>291</v>
       </c>
       <c r="B339" t="n">
-        <v>1014</v>
+        <v>294</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>1014</v>
+        <v>294</v>
       </c>
       <c r="B340" t="n">
-        <v>1017</v>
+        <v>297</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -4859,10 +4859,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1017</v>
+        <v>297</v>
       </c>
       <c r="B341" t="n">
-        <v>1020</v>
+        <v>300</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -4872,10 +4872,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1020</v>
+        <v>300</v>
       </c>
       <c r="B342" t="n">
-        <v>1023</v>
+        <v>303</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1023</v>
+        <v>303</v>
       </c>
       <c r="B343" t="n">
-        <v>1026</v>
+        <v>306</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1026</v>
+        <v>306</v>
       </c>
       <c r="B344" t="n">
-        <v>1029</v>
+        <v>309</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1029</v>
+        <v>309</v>
       </c>
       <c r="B345" t="n">
-        <v>1032</v>
+        <v>312</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -4924,10 +4924,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1032</v>
+        <v>312</v>
       </c>
       <c r="B346" t="n">
-        <v>1035</v>
+        <v>315</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1035</v>
+        <v>315</v>
       </c>
       <c r="B347" t="n">
-        <v>1038</v>
+        <v>318</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -4950,10 +4950,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1038</v>
+        <v>318</v>
       </c>
       <c r="B348" t="n">
-        <v>1041</v>
+        <v>321</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -4963,10 +4963,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1041</v>
+        <v>321</v>
       </c>
       <c r="B349" t="n">
-        <v>1044</v>
+        <v>324</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -4976,10 +4976,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1044</v>
+        <v>324</v>
       </c>
       <c r="B350" t="n">
-        <v>1047</v>
+        <v>327</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -4989,10 +4989,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1047</v>
+        <v>327</v>
       </c>
       <c r="B351" t="n">
-        <v>1050</v>
+        <v>330</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -5002,10 +5002,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1050</v>
+        <v>330</v>
       </c>
       <c r="B352" t="n">
-        <v>1053</v>
+        <v>333</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1053</v>
+        <v>333</v>
       </c>
       <c r="B353" t="n">
-        <v>1056</v>
+        <v>336</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1056</v>
+        <v>336</v>
       </c>
       <c r="B354" t="n">
-        <v>1059</v>
+        <v>339</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -5041,10 +5041,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1059</v>
+        <v>339</v>
       </c>
       <c r="B355" t="n">
-        <v>1062</v>
+        <v>342</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -5054,10 +5054,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1062</v>
+        <v>342</v>
       </c>
       <c r="B356" t="n">
-        <v>1065</v>
+        <v>345</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -5067,10 +5067,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1065</v>
+        <v>345</v>
       </c>
       <c r="B357" t="n">
-        <v>1068</v>
+        <v>348</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1068</v>
+        <v>348</v>
       </c>
       <c r="B358" t="n">
-        <v>1071</v>
+        <v>351</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -5093,10 +5093,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1071</v>
+        <v>351</v>
       </c>
       <c r="B359" t="n">
-        <v>1074</v>
+        <v>354</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -5106,10 +5106,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1074</v>
+        <v>354</v>
       </c>
       <c r="B360" t="n">
-        <v>1077</v>
+        <v>357</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -5119,10 +5119,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1077</v>
+        <v>357</v>
       </c>
       <c r="B361" t="n">
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>1083</v>
+        <v>363</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -5145,10 +5145,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1083</v>
+        <v>363</v>
       </c>
       <c r="B363" t="n">
-        <v>1086</v>
+        <v>366</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1086</v>
+        <v>366</v>
       </c>
       <c r="B364" t="n">
-        <v>1089</v>
+        <v>369</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1089</v>
+        <v>369</v>
       </c>
       <c r="B365" t="n">
-        <v>1092</v>
+        <v>372</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -5184,10 +5184,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1092</v>
+        <v>372</v>
       </c>
       <c r="B366" t="n">
-        <v>1095</v>
+        <v>375</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1095</v>
+        <v>375</v>
       </c>
       <c r="B367" t="n">
-        <v>1098</v>
+        <v>378</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -5210,10 +5210,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1098</v>
+        <v>378</v>
       </c>
       <c r="B368" t="n">
-        <v>1101</v>
+        <v>381</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -5223,10 +5223,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1101</v>
+        <v>381</v>
       </c>
       <c r="B369" t="n">
-        <v>1104</v>
+        <v>384</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -5236,10 +5236,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1104</v>
+        <v>384</v>
       </c>
       <c r="B370" t="n">
-        <v>1107</v>
+        <v>387</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1107</v>
+        <v>387</v>
       </c>
       <c r="B371" t="n">
-        <v>1110</v>
+        <v>390</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -5262,10 +5262,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1110</v>
+        <v>390</v>
       </c>
       <c r="B372" t="n">
-        <v>1113</v>
+        <v>393</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -5275,10 +5275,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1113</v>
+        <v>393</v>
       </c>
       <c r="B373" t="n">
-        <v>1116</v>
+        <v>396</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -5288,10 +5288,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1116</v>
+        <v>396</v>
       </c>
       <c r="B374" t="n">
-        <v>1119</v>
+        <v>399</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1119</v>
+        <v>399</v>
       </c>
       <c r="B375" t="n">
-        <v>1122</v>
+        <v>402</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1122</v>
+        <v>402</v>
       </c>
       <c r="B376" t="n">
-        <v>1125</v>
+        <v>405</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -5327,10 +5327,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1125</v>
+        <v>405</v>
       </c>
       <c r="B377" t="n">
-        <v>1128</v>
+        <v>408</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1128</v>
+        <v>408</v>
       </c>
       <c r="B378" t="n">
-        <v>1131</v>
+        <v>411</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -5353,10 +5353,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1131</v>
+        <v>411</v>
       </c>
       <c r="B379" t="n">
-        <v>1134</v>
+        <v>414</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -5366,10 +5366,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1134</v>
+        <v>414</v>
       </c>
       <c r="B380" t="n">
-        <v>1137</v>
+        <v>417</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1137</v>
+        <v>417</v>
       </c>
       <c r="B381" t="n">
-        <v>1140</v>
+        <v>420</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1140</v>
+        <v>420</v>
       </c>
       <c r="B382" t="n">
-        <v>1143</v>
+        <v>423</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -5405,10 +5405,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1143</v>
+        <v>423</v>
       </c>
       <c r="B383" t="n">
-        <v>1146</v>
+        <v>426</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -5418,10 +5418,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1146</v>
+        <v>426</v>
       </c>
       <c r="B384" t="n">
-        <v>1149</v>
+        <v>429</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -5431,10 +5431,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1149</v>
+        <v>429</v>
       </c>
       <c r="B385" t="n">
-        <v>1152</v>
+        <v>432</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1152</v>
+        <v>432</v>
       </c>
       <c r="B386" t="n">
-        <v>1155</v>
+        <v>435</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1155</v>
+        <v>435</v>
       </c>
       <c r="B387" t="n">
-        <v>1158</v>
+        <v>438</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1158</v>
+        <v>438</v>
       </c>
       <c r="B388" t="n">
-        <v>1161</v>
+        <v>441</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -5483,10 +5483,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1161</v>
+        <v>441</v>
       </c>
       <c r="B389" t="n">
-        <v>1164</v>
+        <v>444</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -5496,10 +5496,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1164</v>
+        <v>444</v>
       </c>
       <c r="B390" t="n">
-        <v>1167</v>
+        <v>447</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1167</v>
+        <v>447</v>
       </c>
       <c r="B391" t="n">
-        <v>1170</v>
+        <v>450</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -5522,10 +5522,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1170</v>
+        <v>450</v>
       </c>
       <c r="B392" t="n">
-        <v>1173</v>
+        <v>453</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -5535,10 +5535,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1173</v>
+        <v>453</v>
       </c>
       <c r="B393" t="n">
-        <v>1176</v>
+        <v>456</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -5548,10 +5548,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1176</v>
+        <v>456</v>
       </c>
       <c r="B394" t="n">
-        <v>1179</v>
+        <v>459</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -5561,10 +5561,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1179</v>
+        <v>459</v>
       </c>
       <c r="B395" t="n">
-        <v>1182</v>
+        <v>462</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1182</v>
+        <v>462</v>
       </c>
       <c r="B396" t="n">
-        <v>1185</v>
+        <v>465</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -5587,10 +5587,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1185</v>
+        <v>465</v>
       </c>
       <c r="B397" t="n">
-        <v>1188</v>
+        <v>468</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1188</v>
+        <v>468</v>
       </c>
       <c r="B398" t="n">
-        <v>1191</v>
+        <v>471</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -5613,10 +5613,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1191</v>
+        <v>471</v>
       </c>
       <c r="B399" t="n">
-        <v>1194</v>
+        <v>474</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1194</v>
+        <v>474</v>
       </c>
       <c r="B400" t="n">
-        <v>1197</v>
+        <v>477</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -5639,10 +5639,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1197</v>
+        <v>477</v>
       </c>
       <c r="B401" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -5652,10 +5652,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="B402" t="n">
-        <v>1203</v>
+        <v>483</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -5665,10 +5665,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1203</v>
+        <v>483</v>
       </c>
       <c r="B403" t="n">
-        <v>1206</v>
+        <v>486</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1206</v>
+        <v>486</v>
       </c>
       <c r="B404" t="n">
-        <v>1209</v>
+        <v>489</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1209</v>
+        <v>489</v>
       </c>
       <c r="B405" t="n">
-        <v>1212</v>
+        <v>492</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -5704,10 +5704,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1212</v>
+        <v>492</v>
       </c>
       <c r="B406" t="n">
-        <v>1215</v>
+        <v>495</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -5717,10 +5717,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1215</v>
+        <v>495</v>
       </c>
       <c r="B407" t="n">
-        <v>1218</v>
+        <v>498</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1218</v>
+        <v>498</v>
       </c>
       <c r="B408" t="n">
-        <v>1221</v>
+        <v>501</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1221</v>
+        <v>501</v>
       </c>
       <c r="B409" t="n">
-        <v>1224</v>
+        <v>504</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1224</v>
+        <v>504</v>
       </c>
       <c r="B410" t="n">
-        <v>1227</v>
+        <v>507</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1227</v>
+        <v>507</v>
       </c>
       <c r="B411" t="n">
-        <v>1230</v>
+        <v>510</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1230</v>
+        <v>510</v>
       </c>
       <c r="B412" t="n">
-        <v>1233</v>
+        <v>513</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -5795,10 +5795,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1233</v>
+        <v>513</v>
       </c>
       <c r="B413" t="n">
-        <v>1236</v>
+        <v>516</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1236</v>
+        <v>516</v>
       </c>
       <c r="B414" t="n">
-        <v>1239</v>
+        <v>519</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1239</v>
+        <v>519</v>
       </c>
       <c r="B415" t="n">
-        <v>1242</v>
+        <v>522</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -5834,10 +5834,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1242</v>
+        <v>522</v>
       </c>
       <c r="B416" t="n">
-        <v>1245</v>
+        <v>525</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1245</v>
+        <v>525</v>
       </c>
       <c r="B417" t="n">
-        <v>1248</v>
+        <v>528</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -5860,10 +5860,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1248</v>
+        <v>528</v>
       </c>
       <c r="B418" t="n">
-        <v>1251</v>
+        <v>531</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1251</v>
+        <v>531</v>
       </c>
       <c r="B419" t="n">
-        <v>1254</v>
+        <v>534</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>1254</v>
+        <v>534</v>
       </c>
       <c r="B420" t="n">
-        <v>1257</v>
+        <v>537</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1257</v>
+        <v>537</v>
       </c>
       <c r="B421" t="n">
-        <v>1260</v>
+        <v>540</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -5912,10 +5912,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1260</v>
+        <v>540</v>
       </c>
       <c r="B422" t="n">
-        <v>1263</v>
+        <v>543</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -5925,10 +5925,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1263</v>
+        <v>543</v>
       </c>
       <c r="B423" t="n">
-        <v>1266</v>
+        <v>546</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1266</v>
+        <v>546</v>
       </c>
       <c r="B424" t="n">
-        <v>1269</v>
+        <v>549</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1269</v>
+        <v>549</v>
       </c>
       <c r="B425" t="n">
-        <v>1272</v>
+        <v>552</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -5964,10 +5964,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1272</v>
+        <v>552</v>
       </c>
       <c r="B426" t="n">
-        <v>1275</v>
+        <v>555</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -5977,10 +5977,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1275</v>
+        <v>555</v>
       </c>
       <c r="B427" t="n">
-        <v>1278</v>
+        <v>558</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1278</v>
+        <v>558</v>
       </c>
       <c r="B428" t="n">
-        <v>1281</v>
+        <v>561</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -6003,10 +6003,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1281</v>
+        <v>561</v>
       </c>
       <c r="B429" t="n">
-        <v>1284</v>
+        <v>564</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1284</v>
+        <v>564</v>
       </c>
       <c r="B430" t="n">
-        <v>1287</v>
+        <v>567</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -6029,10 +6029,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1287</v>
+        <v>567</v>
       </c>
       <c r="B431" t="n">
-        <v>1290</v>
+        <v>570</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -6042,10 +6042,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1290</v>
+        <v>570</v>
       </c>
       <c r="B432" t="n">
-        <v>1293</v>
+        <v>573</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -6055,10 +6055,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1293</v>
+        <v>573</v>
       </c>
       <c r="B433" t="n">
-        <v>1296</v>
+        <v>576</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1296</v>
+        <v>576</v>
       </c>
       <c r="B434" t="n">
-        <v>1299</v>
+        <v>579</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -6081,10 +6081,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1299</v>
+        <v>579</v>
       </c>
       <c r="B435" t="n">
-        <v>1302</v>
+        <v>582</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1302</v>
+        <v>582</v>
       </c>
       <c r="B436" t="n">
-        <v>1305</v>
+        <v>585</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1305</v>
+        <v>585</v>
       </c>
       <c r="B437" t="n">
-        <v>1308</v>
+        <v>588</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -6120,10 +6120,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1308</v>
+        <v>588</v>
       </c>
       <c r="B438" t="n">
-        <v>1311</v>
+        <v>591</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -6133,10 +6133,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1311</v>
+        <v>591</v>
       </c>
       <c r="B439" t="n">
-        <v>1314</v>
+        <v>594</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -6146,10 +6146,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1314</v>
+        <v>594</v>
       </c>
       <c r="B440" t="n">
-        <v>1317</v>
+        <v>597</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -6159,10 +6159,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1317</v>
+        <v>597</v>
       </c>
       <c r="B441" t="n">
-        <v>1320</v>
+        <v>600</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1320</v>
+        <v>600</v>
       </c>
       <c r="B442" t="n">
-        <v>1323</v>
+        <v>603</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1323</v>
+        <v>603</v>
       </c>
       <c r="B443" t="n">
-        <v>1326</v>
+        <v>606</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1326</v>
+        <v>606</v>
       </c>
       <c r="B444" t="n">
-        <v>1329</v>
+        <v>609</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -6211,10 +6211,10 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1329</v>
+        <v>609</v>
       </c>
       <c r="B445" t="n">
-        <v>1332</v>
+        <v>612</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -6224,10 +6224,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1332</v>
+        <v>612</v>
       </c>
       <c r="B446" t="n">
-        <v>1335</v>
+        <v>615</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -6237,10 +6237,10 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1335</v>
+        <v>615</v>
       </c>
       <c r="B447" t="n">
-        <v>1338</v>
+        <v>618</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -6250,10 +6250,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1338</v>
+        <v>618</v>
       </c>
       <c r="B448" t="n">
-        <v>1341</v>
+        <v>621</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -6263,10 +6263,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1341</v>
+        <v>621</v>
       </c>
       <c r="B449" t="n">
-        <v>1344</v>
+        <v>624</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -6276,10 +6276,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1344</v>
+        <v>624</v>
       </c>
       <c r="B450" t="n">
-        <v>1347</v>
+        <v>627</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -6289,10 +6289,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1347</v>
+        <v>627</v>
       </c>
       <c r="B451" t="n">
-        <v>1350</v>
+        <v>630</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -6302,10 +6302,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1350</v>
+        <v>630</v>
       </c>
       <c r="B452" t="n">
-        <v>1353</v>
+        <v>633</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -6315,10 +6315,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1353</v>
+        <v>633</v>
       </c>
       <c r="B453" t="n">
-        <v>1356</v>
+        <v>636</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -6328,10 +6328,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1356</v>
+        <v>636</v>
       </c>
       <c r="B454" t="n">
-        <v>1359</v>
+        <v>639</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -6341,10 +6341,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1359</v>
+        <v>639</v>
       </c>
       <c r="B455" t="n">
-        <v>1362</v>
+        <v>642</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -6354,10 +6354,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1362</v>
+        <v>642</v>
       </c>
       <c r="B456" t="n">
-        <v>1365</v>
+        <v>645</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -6367,10 +6367,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1365</v>
+        <v>645</v>
       </c>
       <c r="B457" t="n">
-        <v>1368</v>
+        <v>648</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -6380,10 +6380,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1368</v>
+        <v>648</v>
       </c>
       <c r="B458" t="n">
-        <v>1371</v>
+        <v>651</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -6393,10 +6393,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1371</v>
+        <v>651</v>
       </c>
       <c r="B459" t="n">
-        <v>1374</v>
+        <v>654</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -6406,10 +6406,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1374</v>
+        <v>654</v>
       </c>
       <c r="B460" t="n">
-        <v>1377</v>
+        <v>657</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -6419,10 +6419,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1377</v>
+        <v>657</v>
       </c>
       <c r="B461" t="n">
-        <v>1380</v>
+        <v>660</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -6432,10 +6432,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1380</v>
+        <v>660</v>
       </c>
       <c r="B462" t="n">
-        <v>1383</v>
+        <v>663</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -6445,10 +6445,10 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1383</v>
+        <v>663</v>
       </c>
       <c r="B463" t="n">
-        <v>1386</v>
+        <v>666</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -6458,10 +6458,10 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1386</v>
+        <v>666</v>
       </c>
       <c r="B464" t="n">
-        <v>1389</v>
+        <v>669</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -6471,10 +6471,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1389</v>
+        <v>669</v>
       </c>
       <c r="B465" t="n">
-        <v>1392</v>
+        <v>672</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1392</v>
+        <v>672</v>
       </c>
       <c r="B466" t="n">
-        <v>1395</v>
+        <v>675</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -6497,10 +6497,10 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1395</v>
+        <v>675</v>
       </c>
       <c r="B467" t="n">
-        <v>1398</v>
+        <v>678</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -6510,10 +6510,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1398</v>
+        <v>678</v>
       </c>
       <c r="B468" t="n">
-        <v>1401</v>
+        <v>681</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1401</v>
+        <v>681</v>
       </c>
       <c r="B469" t="n">
-        <v>1404</v>
+        <v>684</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1404</v>
+        <v>684</v>
       </c>
       <c r="B470" t="n">
-        <v>1407</v>
+        <v>687</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1407</v>
+        <v>687</v>
       </c>
       <c r="B471" t="n">
-        <v>1410</v>
+        <v>690</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -6562,10 +6562,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1410</v>
+        <v>690</v>
       </c>
       <c r="B472" t="n">
-        <v>1413</v>
+        <v>693</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -6575,10 +6575,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1413</v>
+        <v>693</v>
       </c>
       <c r="B473" t="n">
-        <v>1416</v>
+        <v>696</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -6588,10 +6588,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1416</v>
+        <v>696</v>
       </c>
       <c r="B474" t="n">
-        <v>1419</v>
+        <v>699</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -6601,10 +6601,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1419</v>
+        <v>699</v>
       </c>
       <c r="B475" t="n">
-        <v>1422</v>
+        <v>702</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -6614,10 +6614,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1422</v>
+        <v>702</v>
       </c>
       <c r="B476" t="n">
-        <v>1425</v>
+        <v>705</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1425</v>
+        <v>705</v>
       </c>
       <c r="B477" t="n">
-        <v>1428</v>
+        <v>708</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -6640,10 +6640,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1428</v>
+        <v>708</v>
       </c>
       <c r="B478" t="n">
-        <v>1431</v>
+        <v>711</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -6653,10 +6653,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1431</v>
+        <v>711</v>
       </c>
       <c r="B479" t="n">
-        <v>1434</v>
+        <v>714</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -6666,10 +6666,10 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1434</v>
+        <v>714</v>
       </c>
       <c r="B480" t="n">
-        <v>1437</v>
+        <v>717</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -6679,10 +6679,10 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1437</v>
+        <v>717</v>
       </c>
       <c r="B481" t="n">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
